--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_705_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_705_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,7 +543,11 @@
           <t>第一个问题解决了没有？分层，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“第一个问题解决了没有？”体现出老师在询问第一个问题是否已被解决，但并没有直接发起新的课堂活动。而“分层”这个词可能是老师在提到某种教学方法或者让学生对某个概念进行分类，但没有明确的指令或活动指示。综合上述整段话的分析过程，这段话没有明确的课堂活动特征，无法确定接下来要开展的活动。
@@ -632,7 +636,11 @@
           <t>你当第一层是吧，第一层，没有吗？一到三门第一层还有，第二层呢，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语涉及到询问或确认某些事物的分布情况，但没有明显的课堂活动指令，如邀请学生发言、展示、练习或齐读等。因此，从这段话中无法识别出任何预设的课堂活动类别。
@@ -690,7 +698,11 @@
           <t>为什么他们是最可爱的人，总写他们是最可爱的人是吧，哦，是不是？那第第二层呢？第二层是分析分喜，他们是最可爱的人分析哦，我们的份上写了哪些事件，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语涉及到对文本内容的分析和讨论，特别是关于“他们是最可爱的人”这一主题的分析。老师提到了“第二层”，这可能是指分析的第二点或者层次，但没有明确指出是学生要做什么具体的课堂活动，如发言、展示还是写作等。因此，这段话无法直接对应到预设的课堂活动类别。
@@ -717,7 +729,11 @@
           <t>后面是古风二次战役中的一个松古风，后面的就是后面就是马马玉霞从东幼孩子。对嗯，还有一件事情呢，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师提到了古风二次战役中的一个角色松古风，以及马马玉霞从东幼孩子的背景信息，但并没有直接发起任何明确的课堂活动。同时，老师提到了“还有一件事情呢”，表明可能即将要提出新的事情或者课堂活动，但话语在这里中断，没有给出具体的活动指示。综合上述整段话的分析过程，这段话语中没有提供足够的信息来识别出预设的课堂活动类别。
@@ -744,7 +760,11 @@
           <t>写了分写了这三个他们最可爱的事件。嗯，那第三层呢总还是总写还是总写，所以是总总分总啊，这是这是热门的概括，以及概括的依据，先把掌声送给乐门，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师在总结和评价学生的概括，提到了“总总分总”的结构，并对学生的概括给予了肯定。但这段话语中并没有明确指示学生要进行新的课堂活动，比如发言、展示或者练习。因此，无法识别出任何预设的课堂活动类别。
@@ -802,7 +822,11 @@
           <t>呃首先还是我，我其实觉得我可以，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我其实觉得我可以”是学生在表达自己的观点或意愿，但没有明确的课堂活动指令或特征。因此，无法直接推断出接下来要进行的课堂活动。
@@ -829,7 +853,11 @@
           <t>第二段我就是从第四段到第四段到，第第八八段，第九段计算到第九段讲的就是他们打仗嘛。呃，其实我然后呢第三个层次就是，那就第十段第十段到第十段到第十二段。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师提到了对课文不同段落的划分和分析，但并没有明确的指令来指示学生要做什么活动。因此，无法直接推断出一个具体的课堂活动类别。综合上述整段话的分析过程，这段话更像是老师在讲解或分析文本结构，而不是发起一个需要学生立即执行的课堂活动。
@@ -926,7 +954,11 @@
           <t>是不是？韩老师刚刚我记得讲的，他他说这个马玉祥是很可爱嘛，他早就比可爱。那我们应该写他这个纯朴可爱，还有韩老师讲那个孙悟空战斗的一个战士，你不你这后面不是就是你的，你的血和韩老师说要吻合啊，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语主要是在回顾之前的内容，提到了韩老师对马玉祥和孙悟空的评价，并要求学生注意写作时的内容要与老师的讲解相吻合。但是，这段话语中并没有直接发起新的课堂活动，而是对之前内容的总结和提醒，因此，无法识别出任何预设的课堂活动类别。
@@ -953,7 +985,11 @@
           <t>对我觉得这三个词好精炼肯吃苦贡献多，要用少漂亮。真的这种精炼的语言，这不是底老师讲的内容吧，但是他自己提炼的，我觉得提炼的非常漂亮，为什么可爱很吃苦，贡献多要的少，不思无私。嗯，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师在评价和分享自己对某个概念或者观点的提炼，提到了“精炼的语言”和“提炼的非常漂亮”，这是老师在对某种表达方式或者某个观点的赞赏，但没有直接发出开展课堂活动的指令。综合上述整段话的分析过程，这段话中没有明显的课堂活动特征，因此无法识别出任何预设的课堂活动类别。
@@ -980,7 +1016,11 @@
           <t>没有哈，谢谢谢谢谢。这这小第第七小组第，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语似乎不完整，没有明确的课堂活动指令或者描述。因此，从这段话中无法识别出任何预设的课堂活动类别。
@@ -1007,7 +1047,11 @@
           <t>我觉得会更好。比如说这这种无私奉献，其实我要的就是这个无私奉献这个词是吧？很吃苦贡献，多无私奉献嘛，要少典前的无私奉献，多么奉献呃，对敌人的痛恨，体现了他对人民的爱，这叫这叫什么？</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语主要是对某种精神品质的阐述和提问，没有明确的指令性语言，如“请”、“做”、“展示”等，因此没有直接指示学生进行某项具体的课堂活动。综合分析，这段话中没有提及或暗示学生要开展的课堂活动。
@@ -1096,7 +1140,11 @@
           <t>对中国人的那种热情，</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”对中国人的那种热情“，虽然提到了一种情感或态度，但并没有明确的指令或活动类型描述，没有体现学生需要进行的课堂活动。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -1123,7 +1171,11 @@
           <t>嗯，是作者对中你是说作者对自己人的热情吗？</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“嗯，是作者对中你是说作者对自己人的热情吗？”体现出老师在询问学生关于作者对自己人热情的理解，其中的“你”可能是指代某个学生。这句话虽然涉及到了学生可能需要回答的问题，但并没有明确发起一个课堂活动的指令，比如“请你说说”或“你来回答”，而是以提问的方式进行。因此，无法确定是否要开展特定的课堂活动。
@@ -1150,7 +1202,11 @@
           <t>作者不是中国人，但是志愿军对作者的热情啊，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语描述了作者的身份和志愿军对作者的态度，但没有直接指示学生进行任何特定的课堂活动，如发言、展示、练习等。因此，无法识别出预设的课堂活动类别。
@@ -1239,7 +1295,11 @@
           <t>不听就出去要做就好好做，不做，就站在后面去，排比吗？继续排比是修辞手法表达方式有五种，一种是继续。</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“不听就出去要做就好好做，不做，就站在后面去”这部分是老师对学生行为的指导，不是典型的课堂活动指令。而“排比吗？继续排比是修辞手法表达方式有五种，一种是继续。”这部分虽然提到了“继续排比”，但这更像是一种提问或者教学内容的阐述，而不是启动一个新的课堂活动。综合上述整段话的分析过程，这段话语中没有明显的课堂活动指示，所以无法识别出任何预设的课堂活动类别。
@@ -1328,7 +1388,11 @@
           <t>因为它有什么万能性，</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“因为它有什么万能性”这部分，虽然提到了一个原因或特性，但没有明确的指令或活动描述，比如邀请学生发言、展示、练习等。因此，这段话无法直接关联到预设的课堂活动类别。
@@ -1355,7 +1419,11 @@
           <t>只不过从不同的角度去写。举个例子来讲啊，好，其实描写我们从小学也接触了这篇文章里边这篇文章谁是最可爱，谁是最可爱的人，谁最可爱的人。刚刚我们那个练习题是讲这种这两种方式啊，但其实有我有这两种方式呢，</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师提到了两种不同的写作角度，并以“描写”为例，提到了“我们从小学也接触了这篇文章里边这篇文章谁是最可爱，谁是最可爱的人，谁最可爱的人”。这里老师可能是在回顾或举例说明如何从不同角度进行写作。然而，这段话没有明确的课堂活动指令，比如邀请学生发言、展示、练习或者齐读等。因此，从这段话中无法直接推断出学生接下来要开展的具体课堂活动。
@@ -1382,7 +1450,11 @@
           <t>记住了中国风战斗，对马玉祥救小孩儿还有防灯，所以运用了主要是在这里运用了继续和描写，就是在中间第二部分是吧？继续描写老师，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语主要是在回顾和评价学生对文学作品中某些元素的理解，如“中国风战斗”、“马玉祥救小孩儿”和“防灯”的描写，以及提到“运用了继续和描写”。虽然提到了“中间第二部分”，但这更像是对文本结构的讲解，而不是发起一个具体的课堂活动。综合上述整段话的分析过程，这段话语中没有明显的课堂活动指令，因此无法识别出预设的课堂活动类别。
@@ -1409,7 +1481,11 @@
           <t>好，这个说明呢是不带感情的。就是我们要区分说明和议论和抒情说明说什么什么名字，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，这个说明呢是不带感情的”是对某种情况的描述，而“就是我们要区分说明和议论和抒情说明说什么什么名字”这部分是在指示学生需要区分不同类型的文体，但没有明确的指令启动一个新的课堂活动，如个体发言、小组讨论等。综合这段话的分析过程，虽然老师提到了一个学习任务，但没有明确的课堂活动指令，因此无法确定即将进行的具体课堂活动类型。
@@ -1436,7 +1512,11 @@
           <t>其实说明的它会涉及到些说明方法下定义做诠释列数字列数字举例子，列图表做比较打，比方用这些方法来给你讲一种科普知识，对，讲明白。所以我这样讲，你就想到了数学的，</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师提到了多种说明方法，如“下定义”、“做诠释”、“列数字”、“举例子”、“列图表”、“做比较”、“打比方”，这些都是在讲解科普知识时常用的教学策略。然而，老师的话语中并没有明确指出要学生立即执行这些活动，而是作为教学方法的阐述。因此，这段话不含有对学生即将进行的课堂活动的直接指令。
@@ -1463,7 +1543,11 @@
           <t>还为你列数字列图表，是不是？所以跟一些理科的东西挂钩，说明这种方法表达方式啊。好，那咱们看议论和抒情跟我觉得好理解的是什么？</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师提到了“还为你列数字列图表”是在阐述一种表达方式，接着说“所以跟一些理科的东西挂钩，说明这种方法表达方式啊”，这是在解释和讨论，而不是直接发起课堂活动。然后，老师问“好，那咱们看议论和抒情跟我觉得好理解的是什么？”，这个问题更像是引发学生思考或讨论的引导，但并没有明确指出是独立练习还是小组讨论，也没有提及个体发言或学生齐读等活动。综合上述整段话的分析过程，这段话语中老师的话语没有明确的课堂活动指示，无法确定具体的课堂活动类别。
@@ -1490,7 +1574,11 @@
           <t>我们在前两天讲那个黄河送的时候，主要讲了间接抒情和那个直接抒情。我在讲土地的誓言的时候，又讲到了一种方法土地的誓言。在网课期间，我讲土地的誓言讲到了一种直接抒情的方法，直接告诉你情感，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师提到了之前讲解的关于黄河颂的间接抒情和直接抒情，以及在讲解《土地的誓言》时再次提到的直接抒情方法。然而，老师的话语中并没有直接发起新的课堂活动，而是回顾和总结之前讲解的内容。因此，从这段话中无法识别出一个即将开始的课堂活动。
@@ -1517,7 +1605,11 @@
           <t>这种情感是直接抒情中的，用典型的表达吗？典典典型的手法叫直抒胸臆，也叫呼告有印象的举手，因为我就知道这些人网课不认真听了，而且不举手的放下呼告。什么叫呼告呢？</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“有印象的举手”体现出老师发起了一个开展课堂活动的指令，邀请学生通过举手来表达自己是否对某个概念有印象。进一步地，“不举手的放下呼告”意味着那些对“呼告”这个概念没有印象的学生不需要举手，可以放下手，这仍然是一个课堂活动中老师对学生的互动。综合上述整段话的分析过程，这个课堂活动是由学生参与、通过举手的方式来回应老师的提问，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1641,7 +1733,11 @@
           <t>五种表达方式，表达自己的观点。什么叫表达观点？</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“五种表达方式，表达自己的观点”体现出老师在引导学生学习如何用不同的方式来表达个人的看法或立场，而“什么叫表达观点？”则是一个问题，要求学生对“表达观点”的概念进行理解和解释。综合上述整段话的分析过程，虽然老师的话语中包含了可能与课堂活动相关的词汇，但并没有明确指示学生接下来要做什么，比如发言、写作、讨论等。因此，无法确定一个具体的课堂活动类别。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -1800,7 +1896,11 @@
           <t>那走继续找啊，继续。</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那走继续找啊，继续”体现了老师在鼓励学生继续进行某个活动，但没有明确指出是哪种课堂活动，例如是“独立练习”还是“小组学习”等。因此，无法准确判断具体的课堂活动类别。
